--- a/Material intensities/mat_per_bridgetunnel_type.xlsx
+++ b/Material intensities/mat_per_bridgetunnel_type.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Infrastructure\Output\5. Material intensities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Material intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701D5AE-28A6-46A1-828E-5FF711274F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F390F-D732-45C1-A1DE-351235DA707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{AFBFBA15-DAA5-4559-8BA1-A9FAF735B8E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AFBFBA15-DAA5-4559-8BA1-A9FAF735B8E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final values" sheetId="1" r:id="rId1"/>
+    <sheet name="Final_input" sheetId="1" r:id="rId1"/>
     <sheet name="Input literature" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -872,17 +872,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DEE3B7-27C6-441D-9808-6B20DE6703BC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -893,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -906,7 +906,7 @@
         <v>41176833.333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>36200742.444444448</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -928,7 +928,7 @@
         <v>4432058.0845104316</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -947,22 +947,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884ABF6-882B-46DF-A075-0FDCCC59BAB3}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -973,12 +973,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -995,7 +995,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>23588500</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>9886500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>10055500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>76782.333333333343</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>66</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E12">
         <f>SUM(E5:E6)</f>
         <v>1508000</v>
@@ -1465,7 +1465,7 @@
         <v>662640.75</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>57</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>63354804.25</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>9</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>68</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>69</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>43530500</v>
       </c>
     </row>
-    <row r="17" spans="7:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>70</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>64094227.333333336</v>
       </c>
     </row>
-    <row r="18" spans="7:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>72</v>
       </c>
@@ -1649,12 +1649,12 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>4829545.4545454541</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>72808441.55844155</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -1847,12 +1847,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B46">
         <f>B42*1000</f>
         <v>55000000</v>
@@ -1874,7 +1874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f>B43*1000</f>
         <v>89000000</v>
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
         <v>129</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I49" t="s">
         <v>130</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>116</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>110</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>111</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>136</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>4432058.0845104316</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>137</v>
       </c>
@@ -2013,12 +2013,12 @@
         <v>35737.704918032789</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
         <v>35</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>101301886.79245283</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
         <v>40</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>10336792.45283019</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>4622.6415094339618</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>43</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
         <v>44</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
         <v>45</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
         <v>46</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
         <v>2</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
         <v>49</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
         <v>50</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>51</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="68" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
         <v>52</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
         <v>53</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
         <v>54</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
         <v>55</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
         <v>56</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
         <v>57</v>
       </c>

--- a/Material intensities/mat_per_bridgetunnel_type.xlsx
+++ b/Material intensities/mat_per_bridgetunnel_type.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\Output\Material intensities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Academic\Chapter\TRIPI-GH-v100\Material intensities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F390F-D732-45C1-A1DE-351235DA707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058A665E-3376-4767-835B-1FCE9F9040A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{AFBFBA15-DAA5-4559-8BA1-A9FAF735B8E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final_input" sheetId="1" r:id="rId1"/>
-    <sheet name="Input literature" sheetId="2" r:id="rId2"/>
+    <sheet name="Coversheet" sheetId="3" r:id="rId1"/>
+    <sheet name="Final_input" sheetId="1" r:id="rId2"/>
+    <sheet name="Input literature" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="151">
   <si>
     <t>Steel</t>
   </si>
@@ -459,13 +460,65 @@
   </si>
   <si>
     <t>copper</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking.</t>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CircoMod – Circular Economy Modelling for Climate Change Mitigation 101056868 </t>
+  </si>
+  <si>
+    <t>Content:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Van Engelenburg, M., Deetman, S., Fishman, T., Behrens, P., &amp; van der Voet, E. (2024). TRIPI: A global dataset and codebase of the Total Resources In Physical Infrastructure encompassing road, rail, and parking. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In review</t>
+    </r>
+  </si>
+  <si>
+    <t>Contact:</t>
+  </si>
+  <si>
+    <t>Martijn van Engelenburg</t>
+  </si>
+  <si>
+    <t>m.van.engelenburg@cml.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>Leiden University</t>
+  </si>
+  <si>
+    <t>Material intensities bridges v.1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +528,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -499,17 +579,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="2" xr:uid="{ADB90C75-4010-441D-A1F8-FA6FA7423C8F}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2 2" xfId="3" xr:uid="{2AC75F66-578A-4EBD-BBA7-B5BE19B6B072}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,16 +617,143 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>752789</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>181075</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43139</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4361A11D-A45E-4E05-83E7-885F7E5962F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="190501"/>
+          <a:ext cx="3091139" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CircoMod – Circular Economy Modelling for Climate Change Mitigation –  iamconsortium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34F6C9D-FFA9-4445-B360-83B85B6A7F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3686175" y="190500"/>
+          <a:ext cx="2600325" cy="1715303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95564</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,8 +776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4235450" y="3632200"/>
-          <a:ext cx="6226489" cy="1889225"/>
+          <a:off x="9385300" y="2933700"/>
+          <a:ext cx="6188389" cy="1952725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -869,11 +1085,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA21FEA-DB4F-49AE-AB48-67F8C31EA440}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B12:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{17CBA099-A6F9-4DB4-A538-E9687C949F13}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DEE3B7-27C6-441D-9808-6B20DE6703BC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,12 +1249,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884ABF6-882B-46DF-A075-0FDCCC59BAB3}">
   <dimension ref="A1:AA73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,8 +1955,8 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
     </row>
